--- a/ig/ValueSet-TLSVCategory.xlsx
+++ b/ig/ValueSet-TLSVCategory.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Observation Cate" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-ballot</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:37:57+00:00</t>
+    <t>2024-10-10T09:43:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
